--- a/ELM/SLR_arissetyawan_20_feb_2019.xlsx
+++ b/ELM/SLR_arissetyawan_20_feb_2019.xlsx
@@ -7852,6 +7852,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8069,6 +8070,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -8134,6 +8136,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8166,6 +8169,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8467,15 +8471,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="id-ID" sz="1400" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
+              <a:rPr lang="id-ID" b="0"/>
               <a:t>Publikasi Paper</a:t>
             </a:r>
           </a:p>
@@ -8493,7 +8492,7 @@
           <c:spPr>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="6EA0B0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8504,10 +8503,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Publications!$B$16:$B$29</c:f>
+              <c:f>Publications!$B$16:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -8535,35 +8534,20 @@
                 <c:pt idx="8">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Publications!$C$16:$C$29</c:f>
+              <c:f>Publications!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -8575,31 +8559,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8619,7 +8588,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2018"/>
-          <c:min val="1995"/>
+          <c:min val="2010"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines>
@@ -8639,15 +8608,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US"/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="id-ID" sz="1000" b="1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="id-ID" b="0"/>
                   <a:t>Tahun</a:t>
                 </a:r>
               </a:p>
@@ -8666,25 +8630,16 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="69913216"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="69913216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines>
@@ -8704,15 +8659,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US"/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="id-ID" sz="1000" b="1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="id-ID" b="0"/>
                   <a:t>Jumlah</a:t>
                 </a:r>
               </a:p>
@@ -8731,27 +8681,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="69911296"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8767,6 +8701,18 @@
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
@@ -9406,10 +9352,10 @@
       <xdr:rowOff>187685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>451555</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>68465</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9430,15 +9376,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281285</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2130</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>134015</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9778,8 +9724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH298"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView topLeftCell="K14" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27273,7 +27219,7 @@
   <dimension ref="C5:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27360,8 +27306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30"/>
@@ -33647,8 +33593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33739,7 +33685,7 @@
         <v>2010</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -33747,7 +33693,7 @@
         <v>2011</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -33779,7 +33725,7 @@
         <v>2015</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -33787,7 +33733,7 @@
         <v>2016</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -33795,7 +33741,7 @@
         <v>2017</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -33803,53 +33749,13 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25">
-        <v>2019</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26">
-        <v>2020</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27">
-        <v>2021</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28">
-        <v>2022</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29">
-        <v>2023</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31">
         <f>SUM(C16:C29)</f>
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:3">

--- a/ELM/SLR_arissetyawan_20_feb_2019.xlsx
+++ b/ELM/SLR_arissetyawan_20_feb_2019.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1782">
   <si>
     <t>No</t>
   </si>
@@ -5937,52 +5937,10 @@
     <t>Huang</t>
   </si>
   <si>
-    <t>A Jirayusakul</t>
-  </si>
-  <si>
-    <t>S. Auwatanamongkol</t>
-  </si>
-  <si>
     <t>A. K. Qin</t>
   </si>
   <si>
     <t>Kasun</t>
-  </si>
-  <si>
-    <t>Atsushi Sato</t>
-  </si>
-  <si>
-    <t>Keiji Yamada</t>
-  </si>
-  <si>
-    <t>J. J. Liang</t>
-  </si>
-  <si>
-    <t>Thorsten Bojer</t>
-  </si>
-  <si>
-    <t>Brijnesh J. Jain</t>
-  </si>
-  <si>
-    <t>David Schultz</t>
-  </si>
-  <si>
-    <t>Mihajlo Grbovic</t>
-  </si>
-  <si>
-    <t>Slobodan Vucetic</t>
-  </si>
-  <si>
-    <t>Daniela Hofmann</t>
-  </si>
-  <si>
-    <t>Wen-Liang Hung</t>
-  </si>
-  <si>
-    <t>De-Hua Chen</t>
-  </si>
-  <si>
-    <t>Miin-Shen Yang</t>
   </si>
   <si>
     <t>Marika Kastner</t>
@@ -6279,12 +6237,75 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>haung2012</t>
+  </si>
+  <si>
+    <t>han2013</t>
+  </si>
+  <si>
+    <t>henriquez2017</t>
+  </si>
+  <si>
+    <t>sun2017</t>
+  </si>
+  <si>
+    <t>cervella2016</t>
+  </si>
+  <si>
+    <t>Guang-Bin Huang</t>
+  </si>
+  <si>
+    <t>Hongming Zhou</t>
+  </si>
+  <si>
+    <t>Castaño</t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Henríquez</t>
+  </si>
+  <si>
+    <t>Ruz</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Cervellera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macciò</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Penulis</t>
+  </si>
+  <si>
+    <t>Jurnal</t>
+  </si>
+  <si>
+    <t>Metode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="31">
     <font>
       <sz val="11"/>
@@ -6695,7 +6716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6871,28 +6892,6 @@
     <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -7013,6 +7012,52 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7455,11 +7500,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="182"/>
-        <c:axId val="67493888"/>
-        <c:axId val="69849472"/>
+        <c:axId val="169576320"/>
+        <c:axId val="169577856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67493888"/>
+        <c:axId val="169576320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7488,14 +7533,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69849472"/>
+        <c:crossAx val="169577856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69849472"/>
+        <c:axId val="169577856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7534,7 +7579,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67493888"/>
+        <c:crossAx val="169576320"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7578,7 +7623,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7617,6 +7662,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7686,11 +7732,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="182"/>
-        <c:axId val="85812736"/>
-        <c:axId val="85815680"/>
+        <c:axId val="169598336"/>
+        <c:axId val="170017920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85812736"/>
+        <c:axId val="169598336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7726,14 +7772,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85815680"/>
+        <c:crossAx val="170017920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85815680"/>
+        <c:axId val="170017920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7779,7 +7825,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85812736"/>
+        <c:crossAx val="169598336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7821,7 +7867,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7847,12 +7893,471 @@
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Penulis paling aktif</a:t>
+              <a:t>Penulis Paling Aktif</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pembobotan Input ELM (list)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="6EA0B0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$82:$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>A. K. Qin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P.N, Sugantban</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Petra Schneider</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Xibin Zhu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marc Strickert</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Michael Biehl</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Frank-Michael Schleif</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Thomas Villmann</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Barbara Hammer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$82:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-390B-449D-B5BE-6605A3011383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCAF0A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$1:$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>PENULIS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huang</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A. Castaño</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kasun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>PENULIS</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>PENULIS</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Guang-Bin Huang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Hongming Zhou</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Castaño</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Kasun</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Zhou</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Henríquez</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Han</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Ruz</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>N. Wang</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Er</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Cervellera</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v> Macciò</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Liu</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Marika Kastner</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>A. K. Qin</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>P.N, Sugantban</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Petra Schneider</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Xibin Zhu</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Marc Strickert</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Michael Biehl</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Frank-Michael Schleif</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Thomas Villmann</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Barbara Hammer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$82:$E$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-390B-449D-B5BE-6605A3011383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="170050688"/>
+        <c:axId val="170052608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170050688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID" sz="1000" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Penulis </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170052608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170052608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID" sz="1000" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Jumlah Paper</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.5946014214870855"/>
+              <c:y val="0.93441344473714538"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170050688"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Penulis Paling Aktif</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23456294755844559"/>
+          <c:y val="0.5040889456551626"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8040,11 +8545,11 @@
           </c:extLst>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="69858048"/>
-        <c:axId val="69859968"/>
+        <c:axId val="197220224"/>
+        <c:axId val="197283840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69858048"/>
+        <c:axId val="197220224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8093,14 +8598,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69859968"/>
+        <c:crossAx val="197283840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69859968"/>
+        <c:axId val="197283840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8136,7 +8641,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.59460142148708561"/>
+              <c:y val="0.93441344473714516"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8156,7 +8668,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69858048"/>
+        <c:crossAx val="197220224"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8203,258 +8715,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="id-ID"/>
-  <c:style val="1"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="id-ID"/>
-              <a:t>Publikasi</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="id-ID" baseline="0"/>
-              <a:t> Jurnal</a:t>
-            </a:r>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Total Paper</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="88500"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Publications!$B$2:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Neural Processing Letters</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>IEEE Transactions on Systems, Man, and Cybernetics, Part B (Cybernetics)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>IEEE Intelligent System</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Neurocomputing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Publications!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B55-4B47-8E5B-762F6234ED98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:gapWidth val="182"/>
-        <c:axId val="69885312"/>
-        <c:axId val="69887104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="69885312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9360" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69887104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="69887104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9360" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69885312"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8471,16 +8732,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0"/>
+              <a:defRPr sz="1200" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="id-ID" b="0"/>
+              <a:rPr lang="id-ID" sz="1200" b="0"/>
               <a:t>Publikasi Paper</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8580,11 +8840,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="69911296"/>
-        <c:axId val="69913216"/>
+        <c:axId val="169995648"/>
+        <c:axId val="170071552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69911296"/>
+        <c:axId val="169995648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2018"/>
@@ -8617,7 +8877,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8630,13 +8889,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69913216"/>
+        <c:crossAx val="170071552"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69913216"/>
+        <c:axId val="170071552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8668,7 +8927,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8681,14 +8939,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69911296"/>
+        <c:crossAx val="169995648"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8715,7 +8972,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8732,83 +8989,79 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="id-ID" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Publikasi Paper</a:t>
+              <a:rPr lang="id-ID" sz="1200" b="0"/>
+              <a:t>Publikasi Jurnal</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41892550452916638"/>
+          <c:y val="0.15721315996400573"/>
+          <c:w val="0.55492312993331516"/>
+          <c:h val="0.63129327839210869"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Publications!$C$2:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 1 1 2 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="6EA0B0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>Publications!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>IEEE Transactions on Systems, Man, and Cybernetics, Part B (Cybernetics)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IEEE Intelligent System</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IEEE Transactions on Neural Networks and Learning Systems</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neural Processing Letters</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neurocomputing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Publications!$B$34:$B$42</c:f>
+              <c:f>Publications!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Publications!$C$34:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8819,239 +9072,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-662D-43E3-B475-D5F03B72D9C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:axId val="69933696"/>
-        <c:axId val="69943680"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="69933696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69943680"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="69943680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69933696"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="id-ID"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1400" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Publikasi Jurnal Ilmiah</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="6EA0B0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Publications!$B$51:$B$56</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Neural Networks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Artiﬁcial Intelligence</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Neural Computation</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Neural Processing Letter</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Patter Recognition</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Neurocomputing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Publications!$C$51:$C$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -9064,11 +9087,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="182"/>
-        <c:axId val="69951488"/>
-        <c:axId val="69953408"/>
+        <c:axId val="170099840"/>
+        <c:axId val="170101760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69951488"/>
+        <c:axId val="170099840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9080,15 +9103,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US"/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="id-ID" sz="1000" b="1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="id-ID" b="0"/>
                   <a:t>Jurnal</a:t>
                 </a:r>
               </a:p>
@@ -9106,24 +9124,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69953408"/>
+        <c:crossAx val="170101760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69953408"/>
+        <c:axId val="170101760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9145,20 +9153,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US"/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="id-ID" sz="1000" b="1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="id-ID" b="0"/>
                   <a:t>Jumlah paper</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.59912892844379328"/>
+              <c:y val="0.92931267678056928"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9168,17 +9179,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69951488"/>
+        <c:crossAx val="170099840"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -9198,15 +9199,26 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9257,8 +9269,8 @@
       <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>222480</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>427634</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
@@ -9287,8 +9299,8 @@
       <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>577800</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>196800</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
@@ -9309,83 +9321,18 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>351692</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>293077</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>330735</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>187685</xdr:rowOff>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>527538</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>175847</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>281285</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>134015</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2399280</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>157527</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9404,18 +9351,53 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330735</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>568920</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>123119</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1319893</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174313</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>150334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9428,7 +9410,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9724,8 +9706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH298"/>
   <sheetViews>
-    <sheetView topLeftCell="K14" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9819,11 +9801,11 @@
       <c r="AD1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="71" t="s">
+      <c r="AE1" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
       <c r="AH1" s="15" t="s">
         <v>17</v>
       </c>
@@ -10465,7 +10447,7 @@
         <v>120</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>1740</v>
+        <v>1726</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>121</v>
@@ -12709,10 +12691,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>1733</v>
+        <v>1719</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>1731</v>
+        <v>1717</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>56</v>
@@ -12724,21 +12706,21 @@
         <v>36</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="H39" s="55"/>
       <c r="I39" s="65" t="s">
-        <v>1707</v>
+        <v>1693</v>
       </c>
       <c r="J39" s="56" t="s">
-        <v>1734</v>
+        <v>1720</v>
       </c>
       <c r="K39" s="56"/>
       <c r="L39" s="55" t="s">
-        <v>1735</v>
+        <v>1721</v>
       </c>
       <c r="M39" s="55" t="s">
-        <v>1736</v>
+        <v>1722</v>
       </c>
       <c r="N39" s="56" t="s">
         <v>43</v>
@@ -12761,7 +12743,7 @@
       <c r="AB39" s="55"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="14" t="s">
-        <v>1738</v>
+        <v>1724</v>
       </c>
       <c r="AE39" s="58"/>
       <c r="AF39" s="66" t="s">
@@ -12773,12 +12755,12 @@
       </c>
     </row>
     <row r="40" spans="1:34" s="35" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A40" s="20">
+      <c r="A40" s="114">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1732</v>
+        <v>1718</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>376</v>
@@ -12801,7 +12783,7 @@
       <c r="I40" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="115" t="s">
         <v>40</v>
       </c>
       <c r="K40" s="14"/>
@@ -12817,7 +12799,7 @@
         <v>44</v>
       </c>
       <c r="Q40" s="18"/>
-      <c r="R40" s="16"/>
+      <c r="R40" s="58"/>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
@@ -12826,15 +12808,15 @@
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
-      <c r="AA40" s="17"/>
+      <c r="AA40" s="116"/>
       <c r="AB40" s="14"/>
       <c r="AC40" s="14"/>
       <c r="AD40" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
+      <c r="AE40" s="58"/>
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58"/>
       <c r="AH40" s="34" t="s">
         <v>53</v>
       </c>
@@ -13247,7 +13229,7 @@
         <v>429</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1739</v>
+        <v>1725</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14" t="s">
@@ -20820,7 +20802,7 @@
       <c r="Y175" s="38"/>
       <c r="Z175" s="38"/>
       <c r="AA175" s="42" t="s">
-        <v>1727</v>
+        <v>1713</v>
       </c>
       <c r="AB175" s="38">
         <v>0</v>
@@ -26910,37 +26892,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="73" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B1" s="73"/>
+      <c r="A1" s="125" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1" s="125"/>
       <c r="U1" t="s">
-        <v>1707</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" s="48"/>
-      <c r="C2" s="76" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="74" t="s">
-        <v>1713</v>
-      </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="74" t="s">
+      <c r="C2" s="128" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="126" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="126" t="s">
         <v>881</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="53" t="s">
@@ -26994,7 +26976,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="B4" s="48" t="s">
-        <v>1709</v>
+        <v>1695</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="48"/>
@@ -27014,7 +26996,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="48" t="s">
-        <v>1710</v>
+        <v>1696</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -27034,7 +27016,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="B6" s="48" t="s">
-        <v>1711</v>
+        <v>1697</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -27054,7 +27036,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="48" t="s">
-        <v>1712</v>
+        <v>1698</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="48"/>
@@ -27219,7 +27201,7 @@
   <dimension ref="C5:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27256,7 +27238,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>1743</v>
+        <v>1729</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>1207</v>
@@ -27304,1348 +27286,1435 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N51"/>
+  <dimension ref="A2:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="79"/>
-    <col min="3" max="3" width="30.42578125" style="80"/>
-    <col min="4" max="4" width="8.5703125" style="81"/>
-    <col min="5" max="5" width="20.7109375" style="82" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="83" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="84" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="85" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="86" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="87" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" style="88" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="89" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="79"/>
-    <col min="15" max="1035" width="8.5703125" style="79"/>
-    <col min="1036" max="16384" width="9.140625" style="79"/>
+    <col min="1" max="1" width="22.140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="71"/>
+    <col min="3" max="3" width="30.42578125" style="72"/>
+    <col min="4" max="4" width="8.5703125" style="73"/>
+    <col min="5" max="5" width="20.7109375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="76" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="78" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="79" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" style="80" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="81" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="71"/>
+    <col min="15" max="1035" width="8.5703125" style="71"/>
+    <col min="1036" max="16384" width="9.140625" style="71"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
-      <c r="N2" s="118" t="s">
-        <v>1726</v>
+      <c r="N2" s="110" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="G3" s="84" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="90" customFormat="1" ht="114" customHeight="1">
-      <c r="B4" s="91" t="s">
+      <c r="G3" s="76" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="82" customFormat="1" ht="114" customHeight="1">
+      <c r="B4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="93" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E4" s="94" t="s">
+      <c r="D4" s="85" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E4" s="86" t="s">
         <v>1206</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="87" t="s">
         <v>1207</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="88" t="s">
         <v>1209</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="89" t="s">
         <v>1211</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="90" t="s">
         <v>1205</v>
       </c>
-      <c r="J4" s="99" t="s">
-        <v>1743</v>
+      <c r="J4" s="91" t="s">
+        <v>1729</v>
       </c>
       <c r="K4" s="70" t="s">
         <v>1208</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="92" t="s">
         <v>1210</v>
       </c>
-      <c r="M4" s="119" t="s">
+      <c r="M4" s="111" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="101">
+      <c r="B5" s="93">
         <v>1</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="94" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D5" s="95">
+        <f t="shared" ref="D5:D51" si="0">SUM(E5:M5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H5" s="99">
+        <v>1</v>
+      </c>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="93">
+        <f t="shared" ref="B6:B50" si="1">1+B5</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D6" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101">
+        <v>1</v>
+      </c>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="93">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D7" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102">
+        <v>1</v>
+      </c>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="93">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D8" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101">
+        <v>1</v>
+      </c>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="93">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D9" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101">
+        <v>1</v>
+      </c>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="103"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="93">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D10" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101">
+        <v>1</v>
+      </c>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="93">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D11" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H11" s="99">
+        <v>1</v>
+      </c>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
+    </row>
+    <row r="12" spans="1:14" s="104" customFormat="1">
+      <c r="A12" s="71"/>
+      <c r="B12" s="93">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D12" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100">
+        <v>1</v>
+      </c>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="103"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="93">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D13" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100">
+        <v>1</v>
+      </c>
+      <c r="J13" s="101"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="103"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="93">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D14" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100">
+        <v>1</v>
+      </c>
+      <c r="J14" s="101"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="93">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D15" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100">
+        <v>1</v>
+      </c>
+      <c r="J15" s="101"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="103"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="93">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D16" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100">
+        <v>1</v>
+      </c>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="103"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="93">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D17" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100">
+        <v>1</v>
+      </c>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="103"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="93">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D18" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100">
+        <v>1</v>
+      </c>
+      <c r="J18" s="101"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="93">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D19" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100">
+        <v>1</v>
+      </c>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="93">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D20" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="96"/>
+      <c r="F20" s="97">
+        <v>1</v>
+      </c>
+      <c r="G20" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="93">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D21" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97">
+        <v>1</v>
+      </c>
+      <c r="G21" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="93">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D22" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97">
+        <v>1</v>
+      </c>
+      <c r="G22" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="93">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D23" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97">
+        <v>1</v>
+      </c>
+      <c r="G23" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H23" s="99"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="93">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D24" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97">
+        <v>1</v>
+      </c>
+      <c r="G24" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="93">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="94" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D25" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="96"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J25" s="101">
+        <v>1</v>
+      </c>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="93">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D26" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="96"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100">
+        <v>1</v>
+      </c>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="103"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="93">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="94" t="s">
         <v>1749</v>
       </c>
-      <c r="D5" s="103">
-        <f>SUM(E5:M5)</f>
+      <c r="D27" s="95">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H5" s="107">
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100">
         <v>1</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="101">
-        <f t="shared" ref="B6:B50" si="0">1+B5</f>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="103"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="105">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D28" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="106"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H28" s="99"/>
+      <c r="I28" s="107">
+        <v>1</v>
+      </c>
+      <c r="J28" s="108"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="103"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="105">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D29" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="106"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100">
+        <v>1</v>
+      </c>
+      <c r="J29" s="101"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="105">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D30" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="106"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100">
+        <v>1</v>
+      </c>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="103"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="105">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D31" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="106"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100">
+        <v>1</v>
+      </c>
+      <c r="J31" s="101"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="105">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D32" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="106"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102">
+        <v>1</v>
+      </c>
+      <c r="M32" s="103"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="105">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D33" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="106"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102">
+        <v>1</v>
+      </c>
+      <c r="M33" s="103"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="105">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D34" s="95">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="102" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D6" s="103">
-        <f>SUM(E6:M6)</f>
+      <c r="E34" s="106"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H34" s="99">
         <v>1</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="109">
+      <c r="I34" s="100"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102">
         <v>1</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="101">
+      <c r="M34" s="103"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="105">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D35" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="106">
+        <v>1</v>
+      </c>
+      <c r="F35" s="97"/>
+      <c r="G35" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H35" s="99" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I35" s="100"/>
+      <c r="J35" s="101" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102">
+        <v>1</v>
+      </c>
+      <c r="M35" s="103"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="105">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D36" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="106"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100">
+        <v>1</v>
+      </c>
+      <c r="J36" s="101"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102">
+        <v>1</v>
+      </c>
+      <c r="M36" s="103"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="93">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D37" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="106"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H37" s="99">
+        <v>1</v>
+      </c>
+      <c r="I37" s="100">
+        <v>1</v>
+      </c>
+      <c r="J37" s="101"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="103"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="93">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D38" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="106"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H38" s="99">
+        <v>1</v>
+      </c>
+      <c r="I38" s="100">
+        <v>1</v>
+      </c>
+      <c r="J38" s="101"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="103"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="93">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D39" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="106"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H39" s="99"/>
+      <c r="I39" s="100">
+        <v>1</v>
+      </c>
+      <c r="J39" s="101">
+        <v>1</v>
+      </c>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="103"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="105">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="94" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D40" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="96"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H40" s="99">
+        <v>1</v>
+      </c>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101">
+        <v>1</v>
+      </c>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="103"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="105">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D41" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="96"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H41" s="99">
+        <v>1</v>
+      </c>
+      <c r="I41" s="100"/>
+      <c r="J41" s="101">
+        <v>1</v>
+      </c>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="103"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="105">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C42" s="94" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D42" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H42" s="99">
+        <v>1</v>
+      </c>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101">
+        <v>1</v>
+      </c>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="103"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="105">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D43" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E43" s="96"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H43" s="99">
+        <v>1</v>
+      </c>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="109">
+        <v>1</v>
+      </c>
+      <c r="L43" s="109" t="s">
+        <v>1712</v>
+      </c>
+      <c r="M43" s="103"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="93">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="94" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D44" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E44" s="96"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H44" s="99">
+        <v>1</v>
+      </c>
+      <c r="I44" s="100">
+        <v>1</v>
+      </c>
+      <c r="J44" s="101"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="103"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="93">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D45" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="96"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H45" s="99">
+        <v>1</v>
+      </c>
+      <c r="I45" s="100"/>
+      <c r="J45" s="101">
+        <v>1</v>
+      </c>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="103"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="93">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C46" s="94" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D46" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="96"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H46" s="99">
+        <v>1</v>
+      </c>
+      <c r="I46" s="100"/>
+      <c r="J46" s="101">
+        <v>1</v>
+      </c>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="103"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="93">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D47" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="96"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H47" s="99">
+        <v>1</v>
+      </c>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101">
+        <v>1</v>
+      </c>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="103"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="93">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D48" s="95">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E48" s="96"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H48" s="99">
+        <v>1</v>
+      </c>
+      <c r="I48" s="100"/>
+      <c r="J48" s="101">
+        <v>1</v>
+      </c>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="103"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="93">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D49" s="95">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D7" s="103">
-        <f>SUM(E7:M7)</f>
+      <c r="E49" s="96"/>
+      <c r="F49" s="97">
         <v>1</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110">
+      <c r="G49" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H49" s="99"/>
+      <c r="I49" s="100">
         <v>1</v>
       </c>
-      <c r="M7" s="111"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="101">
+      <c r="J49" s="101"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102">
+        <v>1</v>
+      </c>
+      <c r="M49" s="103"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="93">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C50" s="94" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D50" s="95">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="102" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D8" s="103">
-        <f>SUM(E8:M8)</f>
+      <c r="E50" s="96">
         <v>1</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109">
+      <c r="F50" s="97"/>
+      <c r="G50" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H50" s="99"/>
+      <c r="I50" s="100">
         <v>1</v>
       </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="111"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="101">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D9" s="103">
-        <f>SUM(E9:M9)</f>
+      <c r="J50" s="101">
         <v>1</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="109">
+      <c r="K50" s="102"/>
+      <c r="L50" s="102">
         <v>1</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="101">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D10" s="103">
-        <f>SUM(E10:M10)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109">
-        <v>1</v>
-      </c>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="111"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="101">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D11" s="103">
-        <f>SUM(E11:M11)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H11" s="107">
-        <v>1</v>
-      </c>
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="111"/>
-    </row>
-    <row r="12" spans="1:14" s="112" customFormat="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="101">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D12" s="103">
-        <f>SUM(E12:M12)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108">
-        <v>1</v>
-      </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="111"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="101">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D13" s="103">
-        <f>SUM(E13:M13)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108">
-        <v>1</v>
-      </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="111"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="101">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D14" s="103">
-        <f>SUM(E14:M14)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108">
-        <v>1</v>
-      </c>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="101">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D15" s="103">
-        <f>SUM(E15:M15)</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108">
-        <v>1</v>
-      </c>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="111"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="101">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D16" s="103">
-        <f>SUM(E16:M16)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H16" s="107"/>
-      <c r="I16" s="108">
-        <v>1</v>
-      </c>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="111"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="101">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D17" s="103">
-        <f>SUM(E17:M17)</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H17" s="107"/>
-      <c r="I17" s="108">
-        <v>1</v>
-      </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="101">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C18" s="102" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D18" s="103">
-        <f>SUM(E18:M18)</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="108">
-        <v>1</v>
-      </c>
-      <c r="J18" s="109"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="101">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="102" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D19" s="103">
-        <f>SUM(E19:M19)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="108">
-        <v>1</v>
-      </c>
-      <c r="J19" s="109"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="111"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="101">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C20" s="102" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D20" s="103">
-        <f>SUM(E20:M20)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105">
-        <v>1</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="101">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C21" s="102" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D21" s="103">
-        <f>SUM(E21:M21)</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105">
-        <v>1</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="101">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C22" s="102" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D22" s="103">
-        <f>SUM(E22:M22)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105">
-        <v>1</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="111"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="101">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C23" s="102" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D23" s="103">
-        <f>SUM(E23:M23)</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105">
-        <v>1</v>
-      </c>
-      <c r="G23" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="111"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="101">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C24" s="102" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D24" s="103">
-        <f>SUM(E24:M24)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105">
-        <v>1</v>
-      </c>
-      <c r="G24" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="111"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="101">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C25" s="102" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D25" s="103">
-        <f>SUM(E25:M25)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108" t="s">
-        <v>1726</v>
-      </c>
-      <c r="J25" s="109">
-        <v>1</v>
-      </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="111"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="101">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C26" s="102" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D26" s="103">
-        <f>SUM(E26:M26)</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108">
-        <v>1</v>
-      </c>
-      <c r="J26" s="109"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="101">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D27" s="103">
-        <f>SUM(E27:M27)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H27" s="107"/>
-      <c r="I27" s="108">
-        <v>1</v>
-      </c>
-      <c r="J27" s="109"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="111"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="113">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C28" s="102" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D28" s="103">
-        <f>SUM(E28:M28)</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="114"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H28" s="107"/>
-      <c r="I28" s="115">
-        <v>1</v>
-      </c>
-      <c r="J28" s="116"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="113">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C29" s="102" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D29" s="103">
-        <f>SUM(E29:M29)</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108">
-        <v>1</v>
-      </c>
-      <c r="J29" s="109"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="111"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="113">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C30" s="102" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D30" s="103">
-        <f>SUM(E30:M30)</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="114"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H30" s="107"/>
-      <c r="I30" s="108">
-        <v>1</v>
-      </c>
-      <c r="J30" s="109"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="113">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C31" s="102" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D31" s="103">
-        <f>SUM(E31:M31)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H31" s="107"/>
-      <c r="I31" s="108">
-        <v>1</v>
-      </c>
-      <c r="J31" s="109"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="111"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="113">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C32" s="102" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D32" s="103">
-        <f>SUM(E32:M32)</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="114"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110">
-        <v>1</v>
-      </c>
-      <c r="M32" s="111"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="113">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C33" s="102" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D33" s="103">
-        <f>SUM(E33:M33)</f>
-        <v>1</v>
-      </c>
-      <c r="E33" s="114"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110">
-        <v>1</v>
-      </c>
-      <c r="M33" s="111"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="113">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C34" s="102" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D34" s="103">
-        <f>SUM(E34:M34)</f>
-        <v>2</v>
-      </c>
-      <c r="E34" s="114"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H34" s="107">
-        <v>1</v>
-      </c>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110">
-        <v>1</v>
-      </c>
-      <c r="M34" s="111"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="113">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C35" s="102" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D35" s="103">
-        <f>SUM(E35:M35)</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="114">
-        <v>1</v>
-      </c>
-      <c r="F35" s="105"/>
-      <c r="G35" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H35" s="107" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="109" t="s">
-        <v>1726</v>
-      </c>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110">
-        <v>1</v>
-      </c>
-      <c r="M35" s="111"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="113">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C36" s="102" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D36" s="103">
-        <f>SUM(E36:M36)</f>
-        <v>2</v>
-      </c>
-      <c r="E36" s="114"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H36" s="107"/>
-      <c r="I36" s="108">
-        <v>1</v>
-      </c>
-      <c r="J36" s="109"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110">
-        <v>1</v>
-      </c>
-      <c r="M36" s="111"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="101">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C37" s="102" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D37" s="103">
-        <f>SUM(E37:M37)</f>
-        <v>2</v>
-      </c>
-      <c r="E37" s="114"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H37" s="107">
-        <v>1</v>
-      </c>
-      <c r="I37" s="108">
-        <v>1</v>
-      </c>
-      <c r="J37" s="109"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="111"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="101">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D38" s="103">
-        <f>SUM(E38:M38)</f>
-        <v>2</v>
-      </c>
-      <c r="E38" s="114"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H38" s="107">
-        <v>1</v>
-      </c>
-      <c r="I38" s="108">
-        <v>1</v>
-      </c>
-      <c r="J38" s="109"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="111"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="101">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C39" s="102" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D39" s="103">
-        <f>SUM(E39:M39)</f>
-        <v>2</v>
-      </c>
-      <c r="E39" s="114"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108">
-        <v>1</v>
-      </c>
-      <c r="J39" s="109">
-        <v>1</v>
-      </c>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="111"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="113">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C40" s="102" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D40" s="103">
-        <f>SUM(E40:M40)</f>
-        <v>2</v>
-      </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H40" s="107">
-        <v>1</v>
-      </c>
-      <c r="I40" s="108"/>
-      <c r="J40" s="109">
-        <v>1</v>
-      </c>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="111"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="113">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C41" s="102" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D41" s="103">
-        <f>SUM(E41:M41)</f>
-        <v>2</v>
-      </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H41" s="107">
-        <v>1</v>
-      </c>
-      <c r="I41" s="108"/>
-      <c r="J41" s="109">
-        <v>1</v>
-      </c>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="111"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="113">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C42" s="102" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D42" s="103">
-        <f>SUM(E42:M42)</f>
-        <v>2</v>
-      </c>
-      <c r="E42" s="104"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H42" s="107">
-        <v>1</v>
-      </c>
-      <c r="I42" s="108"/>
-      <c r="J42" s="109">
-        <v>1</v>
-      </c>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="111"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="113">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C43" s="102" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D43" s="103">
-        <f>SUM(E43:M43)</f>
-        <v>2</v>
-      </c>
-      <c r="E43" s="104"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H43" s="107">
-        <v>1</v>
-      </c>
-      <c r="I43" s="108"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="117">
-        <v>1</v>
-      </c>
-      <c r="L43" s="117" t="s">
-        <v>1726</v>
-      </c>
-      <c r="M43" s="111"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="101">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C44" s="102" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D44" s="103">
-        <f>SUM(E44:M44)</f>
-        <v>2</v>
-      </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H44" s="107">
-        <v>1</v>
-      </c>
-      <c r="I44" s="108">
-        <v>1</v>
-      </c>
-      <c r="J44" s="109"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="111"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="101">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C45" s="102" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D45" s="103">
-        <f>SUM(E45:M45)</f>
-        <v>2</v>
-      </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H45" s="107">
-        <v>1</v>
-      </c>
-      <c r="I45" s="108"/>
-      <c r="J45" s="109">
-        <v>1</v>
-      </c>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="101">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C46" s="102" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D46" s="103">
-        <f>SUM(E46:M46)</f>
-        <v>2</v>
-      </c>
-      <c r="E46" s="104"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H46" s="107">
-        <v>1</v>
-      </c>
-      <c r="I46" s="108"/>
-      <c r="J46" s="109">
-        <v>1</v>
-      </c>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="111"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="101">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C47" s="102" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D47" s="103">
-        <f>SUM(E47:M47)</f>
-        <v>2</v>
-      </c>
-      <c r="E47" s="104"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H47" s="107">
-        <v>1</v>
-      </c>
-      <c r="I47" s="108"/>
-      <c r="J47" s="109">
-        <v>1</v>
-      </c>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="111"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="101">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C48" s="102" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D48" s="103">
-        <f>SUM(E48:M48)</f>
-        <v>2</v>
-      </c>
-      <c r="E48" s="104"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H48" s="107">
-        <v>1</v>
-      </c>
-      <c r="I48" s="108"/>
-      <c r="J48" s="109">
-        <v>1</v>
-      </c>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="111"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="101">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C49" s="102" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D49" s="103">
-        <f>SUM(E49:M49)</f>
-        <v>3</v>
-      </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="105">
-        <v>1</v>
-      </c>
-      <c r="G49" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108">
-        <v>1</v>
-      </c>
-      <c r="J49" s="109"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110">
-        <v>1</v>
-      </c>
-      <c r="M49" s="111"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="101">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C50" s="102" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D50" s="103">
-        <f>SUM(E50:M50)</f>
-        <v>4</v>
-      </c>
-      <c r="E50" s="104">
-        <v>1</v>
-      </c>
-      <c r="F50" s="105"/>
-      <c r="G50" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H50" s="107"/>
-      <c r="I50" s="108">
-        <v>1</v>
-      </c>
-      <c r="J50" s="109">
-        <v>1</v>
-      </c>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110">
-        <v>1</v>
-      </c>
-      <c r="M50" s="111"/>
+      <c r="M50" s="103"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="101">
+      <c r="B51" s="93">
         <f>1+B48</f>
         <v>45</v>
       </c>
-      <c r="C51" s="102" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D51" s="103">
-        <f>SUM(E51:M51)</f>
+      <c r="C51" s="94" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D51" s="95">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E51" s="104">
+      <c r="E51" s="96">
         <v>1</v>
       </c>
-      <c r="F51" s="105"/>
-      <c r="G51" s="106" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H51" s="107">
+      <c r="F51" s="97"/>
+      <c r="G51" s="98" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H51" s="99">
         <v>1</v>
       </c>
-      <c r="I51" s="108">
+      <c r="I51" s="100">
         <v>1</v>
       </c>
-      <c r="J51" s="109"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110">
+      <c r="J51" s="101"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102">
         <v>1</v>
       </c>
-      <c r="M51" s="111"/>
+      <c r="M51" s="103"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="E55" s="96" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F55" s="97" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G55" s="131" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H55" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="100" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="E56" s="96"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="E57" s="96"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="100"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="E58" s="96"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="100"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="E59" s="96"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="100"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="E60" s="96"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="100"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="E61" s="96"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="100"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="E62" s="96"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="131"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="100"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="E63" s="96"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="100"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="E64" s="96"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="100"/>
+    </row>
+    <row r="65" spans="5:9">
+      <c r="E65" s="96"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="100"/>
     </row>
   </sheetData>
   <sortState ref="C5:M51">
@@ -32430,7 +32499,7 @@
   <dimension ref="A2:B148"/>
   <sheetViews>
     <sheetView topLeftCell="A124" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33187,10 +33256,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I5"/>
+    <sheetView topLeftCell="A58" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33200,15 +33269,16 @@
     <col min="3" max="3" width="11.7109375"/>
     <col min="4" max="4" width="11.42578125"/>
     <col min="5" max="5" width="11.85546875"/>
-    <col min="6" max="7" width="8.85546875"/>
-    <col min="8" max="8" width="16.85546875"/>
+    <col min="6" max="6" width="8.85546875"/>
+    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125"/>
     <col min="10" max="10" width="3.42578125"/>
     <col min="11" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -33217,13 +33287,13 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="124" t="s">
         <v>1658</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="72"/>
+      <c r="A2" s="124"/>
       <c r="D2" t="s">
         <v>1659</v>
       </c>
@@ -33272,7 +33342,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C5">
         <f>E5+D5</f>
@@ -33286,19 +33356,19 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="124" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
         <v>1657</v>
       </c>
-      <c r="D65" s="72" t="s">
+      <c r="D65" s="124" t="s">
         <v>1658</v>
       </c>
-      <c r="E65" s="72"/>
+      <c r="E65" s="124"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="72"/>
+      <c r="A66" s="124"/>
       <c r="B66" t="s">
         <v>1657</v>
       </c>
@@ -33314,7 +33384,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>1666</v>
+        <v>1767</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -33325,7 +33395,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>1667</v>
+        <v>1768</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -33336,7 +33406,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>1662</v>
+        <v>1769</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -33349,7 +33419,7 @@
       <c r="B70" t="s">
         <v>1663</v>
       </c>
-      <c r="E70">
+      <c r="D70">
         <v>1</v>
       </c>
     </row>
@@ -33358,7 +33428,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>1668</v>
+        <v>1770</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -33366,9 +33439,9 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E72">
+        <v>1772</v>
+      </c>
+      <c r="D72">
         <v>1</v>
       </c>
     </row>
@@ -33377,10 +33450,13 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>1670</v>
+        <v>1771</v>
       </c>
       <c r="D73">
         <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -33388,7 +33464,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>1671</v>
+        <v>1773</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -33399,7 +33475,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>1672</v>
+        <v>1774</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -33410,10 +33486,13 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E76">
+        <v>363</v>
+      </c>
+      <c r="D76">
         <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -33421,7 +33500,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>1674</v>
+        <v>1775</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -33432,7 +33511,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>1675</v>
+        <v>1776</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -33443,7 +33522,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>1676</v>
+        <v>1777</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -33454,48 +33533,51 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>1778</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>1678</v>
+        <v>1664</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>1679</v>
+        <v>1665</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>1680</v>
+        <v>1666</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -33504,23 +33586,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>1681</v>
+        <v>1667</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>1682</v>
+        <v>1668</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -33529,45 +33611,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>1683</v>
+        <v>1669</v>
       </c>
       <c r="E87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>1684</v>
+        <v>1670</v>
       </c>
       <c r="E88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>1685</v>
+        <v>1671</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>1686</v>
+        <v>1672</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -33575,6 +33657,44 @@
       <c r="E90">
         <v>3</v>
       </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75">
+      <c r="G93" s="46" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75">
+      <c r="G94" s="46" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H94" s="46" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75">
+      <c r="G95" s="67" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H95" s="46" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75">
+      <c r="G96" s="47" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H96" s="47" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8" ht="15.75">
+      <c r="G97" s="47" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H97" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -33591,10 +33711,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22:Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33602,239 +33722,425 @@
     <col min="1" max="1" width="8.5703125"/>
     <col min="2" max="2" width="29.28515625"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="1030" width="8.5703125"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="120"/>
+    <col min="16" max="24" width="8.5703125"/>
+    <col min="25" max="25" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="1037" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" s="119" customFormat="1">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="53" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>1764</v>
+      </c>
+      <c r="L1" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="E1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+      <c r="M1" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.75">
       <c r="B2" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="48">
+        <f>SUM(D2:L2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="48">
+        <v>1</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="M2" s="122">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75">
+      <c r="B3" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="48">
+        <f>SUM(D3:L3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48">
+        <v>1</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="M3" s="122">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="68" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AC3" s="68" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75">
+      <c r="B4" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="48">
+        <f>SUM(D4:L4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48">
+        <v>1</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="122">
+        <v>3.41</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="46" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AC4" s="46" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75">
+      <c r="B5" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="C2">
-        <f>SUM(D2:J2)</f>
+      <c r="C5" s="48">
+        <f>SUM(D5:L5)</f>
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="B3" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3">
-        <f>SUM(D3:J3)</f>
+      <c r="L5" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="M5" s="122">
+        <v>0.51</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="46" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AC5" s="46" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75">
+      <c r="B6" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="C6" s="48">
+        <f>SUM(D6:L6)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="H6" s="48">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="B4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4">
-        <f>SUM(D4:J4)</f>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="B5" s="14" t="s">
-        <v>851</v>
-      </c>
-      <c r="C5">
-        <f>SUM(D5:J5)</f>
+      <c r="M6" s="122">
+        <v>1.07</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="67" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AC6" s="46" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75">
+      <c r="AB7" s="47" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75">
+      <c r="AB8" s="47" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AC8" s="69"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="B15" s="113" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="B16" s="48">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0</v>
+      </c>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+    </row>
+    <row r="17" spans="2:26">
+      <c r="B17" s="48">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="48">
+        <v>0</v>
+      </c>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="48">
+        <v>2012</v>
+      </c>
+      <c r="C18" s="48">
+        <v>2</v>
+      </c>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+    </row>
+    <row r="19" spans="2:26">
+      <c r="B19" s="48">
+        <v>2013</v>
+      </c>
+      <c r="C19" s="48">
+        <v>2</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="B20" s="48">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="48">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+    </row>
+    <row r="21" spans="2:26" ht="15.75">
+      <c r="B21" s="48">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="48">
+        <v>0</v>
+      </c>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="Y21" s="68" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Z21" s="68" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" ht="15.75">
+      <c r="B22" s="48">
+        <v>2016</v>
+      </c>
+      <c r="C22" s="48">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16">
-        <v>2010</v>
-      </c>
-      <c r="C16">
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="Y22" s="46" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Z22" s="46" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" ht="15.75">
+      <c r="B23" s="48">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="48">
+        <v>3</v>
+      </c>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="Y23" s="46" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z23" s="46" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="15.75">
+      <c r="B24" s="48">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>2011</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
-        <v>2012</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19">
-        <v>2013</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20">
-        <v>2014</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21">
-        <v>2015</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22">
-        <v>2016</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23">
-        <v>2017</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24">
-        <v>2018</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="C31">
-        <f>SUM(C16:C29)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34">
-        <v>2008</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35">
-        <v>2009</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36">
-        <v>2011</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37">
-        <v>2012</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38">
-        <v>2013</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39">
-        <v>2014</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40">
-        <v>2015</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41">
-        <v>2016</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42">
-        <v>2017</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43">
-        <f>SUM(C34:C42)</f>
-        <v>14</v>
-      </c>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="Y24" s="67" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Z24" s="46" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" ht="15.75">
+      <c r="Y25" s="47" t="s">
+        <v>1210</v>
+      </c>
+      <c r="Z25" s="47" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" ht="15.75">
+      <c r="Y26" s="47" t="s">
+        <v>1212</v>
+      </c>
+      <c r="Z26" s="69"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
@@ -33846,7 +34152,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>1692</v>
+        <v>1678</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -33854,7 +34160,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>1691</v>
+        <v>1677</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -33862,7 +34168,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>1690</v>
+        <v>1676</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -33870,7 +34176,7 @@
     </row>
     <row r="55" spans="2:3" ht="14.25" customHeight="1">
       <c r="B55" t="s">
-        <v>1689</v>
+        <v>1675</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -33885,12 +34191,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:C5">
-    <sortCondition ref="C2:C5"/>
+  <sortState ref="B2:L6">
+    <sortCondition ref="C2:C6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33899,7 +34205,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33912,24 +34218,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1695</v>
+        <v>1681</v>
       </c>
       <c r="B1" t="s">
-        <v>1696</v>
+        <v>1682</v>
       </c>
       <c r="C1" t="s">
-        <v>1697</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1698</v>
+        <v>1684</v>
       </c>
       <c r="B2" t="s">
-        <v>1699</v>
+        <v>1685</v>
       </c>
       <c r="C2" t="s">
-        <v>1700</v>
+        <v>1686</v>
       </c>
       <c r="D2">
         <v>37</v>
@@ -33937,13 +34243,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1701</v>
+        <v>1687</v>
       </c>
       <c r="B3" t="s">
-        <v>1702</v>
+        <v>1688</v>
       </c>
       <c r="C3" t="s">
-        <v>1703</v>
+        <v>1689</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -33951,13 +34257,13 @@
     </row>
     <row r="4" spans="1:4" ht="75">
       <c r="A4" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>1705</v>
+        <v>1690</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>1691</v>
       </c>
       <c r="C4" t="s">
-        <v>1706</v>
+        <v>1692</v>
       </c>
       <c r="D4">
         <v>109</v>

--- a/ELM/SLR_arissetyawan_20_feb_2019.xlsx
+++ b/ELM/SLR_arissetyawan_20_feb_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pembobotan Input ELM (list)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="1781">
   <si>
     <t>No</t>
   </si>
@@ -5937,37 +5937,7 @@
     <t>Huang</t>
   </si>
   <si>
-    <t>A. K. Qin</t>
-  </si>
-  <si>
     <t>Kasun</t>
-  </si>
-  <si>
-    <t>Marika Kastner</t>
-  </si>
-  <si>
-    <t>P.N, Sugantban</t>
-  </si>
-  <si>
-    <t>Petra Schneider</t>
-  </si>
-  <si>
-    <t>Xibin Zhu</t>
-  </si>
-  <si>
-    <t>Marc Strickert</t>
-  </si>
-  <si>
-    <t>Michael Biehl</t>
-  </si>
-  <si>
-    <t>Frank-Michael Schleif</t>
-  </si>
-  <si>
-    <t>Thomas Villmann</t>
-  </si>
-  <si>
-    <t>Barbara Hammer</t>
   </si>
   <si>
     <t>Publikasi</t>
@@ -6245,9 +6215,6 @@
     <t>han2013</t>
   </si>
   <si>
-    <t>henriquez2017</t>
-  </si>
-  <si>
     <t>sun2017</t>
   </si>
   <si>
@@ -6263,12 +6230,6 @@
     <t>Castaño</t>
   </si>
   <si>
-    <t>Zhou</t>
-  </si>
-  <si>
-    <t>Han</t>
-  </si>
-  <si>
     <t>Henríquez</t>
   </si>
   <si>
@@ -6278,15 +6239,6 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>Er</t>
-  </si>
-  <si>
-    <t>Cervellera</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macciò</t>
-  </si>
-  <si>
     <t>Liu</t>
   </si>
   <si>
@@ -6297,6 +6249,51 @@
   </si>
   <si>
     <t>Metode</t>
+  </si>
+  <si>
+    <t>Maccio</t>
+  </si>
+  <si>
+    <t>Fernández-Navarro</t>
+  </si>
+  <si>
+    <t>Yao</t>
+  </si>
+  <si>
+    <t>Cervella</t>
+  </si>
+  <si>
+    <t>W.Wang</t>
+  </si>
+  <si>
+    <t>Ning Wang</t>
+  </si>
+  <si>
+    <t>ROLS-ELM(Ning Wang, Min Han, NuoDong, and Meng Joo Er 2014)</t>
+  </si>
+  <si>
+    <t>Min Han</t>
+  </si>
+  <si>
+    <t>IPSO-ELM(Fei Han, Hai-FenYao, Qing-HuaLing 2013)</t>
+  </si>
+  <si>
+    <t>ELM-AE(L.L.C Kasun, Hongming Zhou, Guang-Bin Huang and Chi Man Vong, 2013)</t>
+  </si>
+  <si>
+    <t>L.L.C Kasun</t>
+  </si>
+  <si>
+    <t>Fei Han</t>
+  </si>
+  <si>
+    <t>Hai-FenYao</t>
+  </si>
+  <si>
+    <t>Lainnya</t>
+  </si>
+  <si>
+    <t>PL-ELM(Henríquez &amp; Ruz, 2016</t>
   </si>
 </sst>
 </file>
@@ -7034,6 +7031,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7055,9 +7055,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7132,6 +7129,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFB2B2B2"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7500,11 +7500,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="182"/>
-        <c:axId val="169576320"/>
-        <c:axId val="169577856"/>
+        <c:axId val="162633600"/>
+        <c:axId val="162635136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169576320"/>
+        <c:axId val="162633600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7533,14 +7533,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169577856"/>
+        <c:crossAx val="162635136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169577856"/>
+        <c:axId val="162635136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7579,7 +7579,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169576320"/>
+        <c:crossAx val="162633600"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7623,13 +7623,246 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID" b="0"/>
+              <a:t>Dataset yang Sering Digunakan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln cap="rnd">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dataset!$C$104:$C$122</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Lainnya</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sonar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Image Segmentation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Glass</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Leukemia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Colon Cancer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E. Coli</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Heart</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ionos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Lymph</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mnist</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mushroom</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Post-Operative Patient
+</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Vote</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Yeast</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Haberman</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Wine</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Satellite Image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dataset!$D$104:$D$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showCatName val="1"/>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="id-ID"/>
   <c:style val="1"/>
@@ -7732,11 +7965,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="182"/>
-        <c:axId val="169598336"/>
-        <c:axId val="170017920"/>
+        <c:axId val="162651520"/>
+        <c:axId val="164119680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169598336"/>
+        <c:axId val="162651520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7772,14 +8005,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170017920"/>
+        <c:crossAx val="164119680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170017920"/>
+        <c:axId val="164119680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7825,7 +8058,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169598336"/>
+        <c:crossAx val="162651520"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7867,13 +8100,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="id-ID"/>
   <c:chart>
@@ -7884,15 +8117,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="id-ID" sz="1400" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
+              <a:rPr lang="id-ID" sz="1200"/>
               <a:t>Penulis Paling Aktif</a:t>
             </a:r>
           </a:p>
@@ -7910,11 +8138,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pembobotan Input ELM (list)'!$A$1</c:f>
+              <c:f>Authors!$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7929,61 +8157,106 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$82:$B$90</c:f>
+              <c:f>Authors!$B$67:$B$90</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>A. K. Qin</c:v>
+                  <c:v>Yao</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>P.N, Sugantban</c:v>
+                  <c:v>W.Wang</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Petra Schneider</c:v>
+                  <c:v>Sun</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xibin Zhu</c:v>
+                  <c:v>Ruz</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Marc Strickert</c:v>
+                  <c:v>Ning Wang</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Michael Biehl</c:v>
+                  <c:v>Min Han</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Frank-Michael Schleif</c:v>
+                  <c:v>Maccio</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Thomas Villmann</c:v>
+                  <c:v>Liu</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Barbara Hammer</c:v>
+                  <c:v>L.L.C Kasun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hongming Zhou</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Henríquez</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hai-FenYao</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Guang-Bin Huang</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fernández-Navarro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fei Han</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cervella</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Castaño</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$82:$D$90</c:f>
+              <c:f>Authors!$D$67:$D$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="24"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8019,125 +8292,71 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$1:$B$90</c:f>
+              <c:f>Authors!$B$67:$B$90</c:f>
               <c:strCache>
-                <c:ptCount val="90"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>PENULIS</c:v>
+                  <c:v>Yao</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W.Wang</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Huang</c:v>
+                  <c:v>Sun</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>A. Castaño</c:v>
+                  <c:v>Ruz</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Kasun</c:v>
+                  <c:v>Ning Wang</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>PENULIS</c:v>
+                <c:pt idx="5">
+                  <c:v>Min Han</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>PENULIS</c:v>
+                <c:pt idx="6">
+                  <c:v>Maccio</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="7">
+                  <c:v>Liu</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>L.L.C Kasun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hongming Zhou</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Henríquez</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hai-FenYao</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Guang-Bin Huang</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>Hongming Zhou</c:v>
+                <c:pt idx="13">
+                  <c:v>Fernández-Navarro</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="14">
+                  <c:v>Fei Han</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cervella</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Castaño</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Kasun</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Zhou</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Henríquez</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Han</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Ruz</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>N. Wang</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Er</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Cervellera</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v> Macciò</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Liu</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>Marika Kastner</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>A. K. Qin</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>P.N, Sugantban</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Petra Schneider</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Xibin Zhu</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Marc Strickert</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Michael Biehl</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Frank-Michael Schleif</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Thomas Villmann</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Barbara Hammer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$E$82:$E$90</c:f>
+              <c:f>Authors!$E$81:$E$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
+                <c:ptCount val="10"/>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8149,11 +8368,333 @@
           </c:extLst>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="170050688"/>
-        <c:axId val="170052608"/>
+        <c:axId val="164115968"/>
+        <c:axId val="164117888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170050688"/>
+        <c:axId val="164115968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID" b="0"/>
+                  <a:t>Penulis</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="164117888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164117888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID" b="0"/>
+                  <a:t>Jumlah Paper</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.59460142148708561"/>
+              <c:y val="0.93441344473714516"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="164115968"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Penulis Paling Aktif</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23456294755844567"/>
+          <c:y val="0.50408894565516249"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pembobotan Input ELM (list)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="6EA0B0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$80:$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fernández-Navarro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fei Han</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cervella</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Castaño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$80:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-390B-449D-B5BE-6605A3011383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pembobotan Input ELM (list)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCAF0A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$80:$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fernández-Navarro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fei Han</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cervella</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Castaño</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$81:$E$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-390B-449D-B5BE-6605A3011383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="164204544"/>
+        <c:axId val="164206464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164204544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8202,14 +8743,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170052608"/>
+        <c:crossAx val="164206464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170052608"/>
+        <c:axId val="164206464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8249,8 +8790,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.5946014214870855"/>
-              <c:y val="0.93441344473714538"/>
+              <c:x val="0.59460142148708561"/>
+              <c:y val="0.93441344473714483"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -8272,7 +8813,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170050688"/>
+        <c:crossAx val="164204544"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8319,13 +8860,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="id-ID"/>
   <c:chart>
@@ -8336,14 +8877,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr lang="en-US" sz="1200">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="id-ID" sz="1400" b="1">
+              <a:rPr lang="id-ID" sz="1200" b="1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>Penulis Paling Aktif</a:t>
             </a:r>
@@ -8354,8 +8899,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23456294755844559"/>
-          <c:y val="0.5040889456551626"/>
+          <c:x val="0.41089541814539204"/>
+          <c:y val="1.6896836167212156E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -8369,18 +8914,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pembobotan Input ELM (list)'!$A$1</c:f>
+              <c:f>Authors!$D$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No</c:v>
+                  <c:v>Penulis Ke-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="6EA0B0"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8388,61 +8933,106 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$82:$B$90</c:f>
+              <c:f>Authors!$B$67:$B$83</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>A. K. Qin</c:v>
+                  <c:v>Yao</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>P.N, Sugantban</c:v>
+                  <c:v>W.Wang</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Petra Schneider</c:v>
+                  <c:v>Sun</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xibin Zhu</c:v>
+                  <c:v>Ruz</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Marc Strickert</c:v>
+                  <c:v>Ning Wang</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Michael Biehl</c:v>
+                  <c:v>Min Han</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Frank-Michael Schleif</c:v>
+                  <c:v>Maccio</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Thomas Villmann</c:v>
+                  <c:v>Liu</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Barbara Hammer</c:v>
+                  <c:v>L.L.C Kasun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hongming Zhou</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Henríquez</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hai-FenYao</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Guang-Bin Huang</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fernández-Navarro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fei Han</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cervella</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Castaño</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$82:$D$90</c:f>
+              <c:f>Authors!$D$67:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8459,18 +9049,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pembobotan Input ELM (list)'!$A$1</c:f>
+              <c:f>Authors!$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No</c:v>
+                  <c:v>Penulis Ke-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="CCAF0A"/>
+              <a:srgbClr val="B2B2B2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8478,62 +9068,101 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$82:$B$90</c:f>
+              <c:f>Authors!$B$67:$B$83</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>A. K. Qin</c:v>
+                  <c:v>Yao</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>P.N, Sugantban</c:v>
+                  <c:v>W.Wang</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Petra Schneider</c:v>
+                  <c:v>Sun</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xibin Zhu</c:v>
+                  <c:v>Ruz</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Marc Strickert</c:v>
+                  <c:v>Ning Wang</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Michael Biehl</c:v>
+                  <c:v>Min Han</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Frank-Michael Schleif</c:v>
+                  <c:v>Maccio</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Thomas Villmann</c:v>
+                  <c:v>Liu</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Barbara Hammer</c:v>
+                  <c:v>L.L.C Kasun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hongming Zhou</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Henríquez</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hai-FenYao</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Guang-Bin Huang</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fernández-Navarro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fei Han</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cervella</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Castaño</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$E$82:$E$90</c:f>
+              <c:f>Authors!$E$67:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="1">
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8545,11 +9174,11 @@
           </c:extLst>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="197220224"/>
-        <c:axId val="197283840"/>
+        <c:axId val="164231808"/>
+        <c:axId val="164262656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197220224"/>
+        <c:axId val="164231808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8593,21 +9222,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr lang="en-US" sz="1200">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197283840"/>
+        <c:crossAx val="164262656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197283840"/>
+        <c:axId val="164262656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines>
@@ -8627,14 +9261,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US"/>
+                  <a:defRPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="id-ID" sz="1000" b="1">
+                  <a:rPr lang="id-ID" sz="1200" b="1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Jumlah Paper</a:t>
                 </a:r>
@@ -8645,8 +9283,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.59460142148708561"/>
-              <c:y val="0.93441344473714516"/>
+              <c:x val="0.77885418117152094"/>
+              <c:y val="0.94586722734901729"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -8668,9 +9306,10 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197220224"/>
+        <c:crossAx val="164231808"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8693,7 +9332,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US"/>
+            <a:defRPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="id-ID"/>
         </a:p>
@@ -8707,21 +9349,19 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="id-ID"/>
   <c:chart>
@@ -8741,6 +9381,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8822,10 +9463,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -8840,11 +9481,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="169995648"/>
-        <c:axId val="170071552"/>
+        <c:axId val="164070528"/>
+        <c:axId val="164072448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169995648"/>
+        <c:axId val="164070528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2018"/>
@@ -8877,6 +9518,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8889,13 +9531,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="170071552"/>
+        <c:crossAx val="164072448"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170071552"/>
+        <c:axId val="164072448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8927,6 +9569,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8939,7 +9582,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169995648"/>
+        <c:crossAx val="164070528"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -8972,13 +9615,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="id-ID"/>
   <c:chart>
@@ -8998,6 +9641,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -9006,9 +9650,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41892550452916638"/>
-          <c:y val="0.15721315996400573"/>
+          <c:y val="0.15721315996400578"/>
           <c:w val="0.55492312993331516"/>
-          <c:h val="0.63129327839210869"/>
+          <c:h val="0.63129327839210891"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -9087,11 +9731,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="182"/>
-        <c:axId val="170099840"/>
-        <c:axId val="170101760"/>
+        <c:axId val="164096640"/>
+        <c:axId val="164098816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170099840"/>
+        <c:axId val="164096640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9112,6 +9756,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -9124,14 +9769,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="170101760"/>
+        <c:crossAx val="164098816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170101760"/>
+        <c:axId val="164098816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9166,7 +9811,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.59912892844379328"/>
+              <c:x val="0.59912892844379351"/>
               <c:y val="0.92931267678056928"/>
             </c:manualLayout>
           </c:layout>
@@ -9179,7 +9824,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="170099840"/>
+        <c:crossAx val="164096640"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -9218,7 +9863,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9251,6 +9896,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30615</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>333373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9323,16 +9998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>307731</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>102576</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2399280</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>157527</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54664</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>54950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9346,6 +10021,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2403229</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>556845</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161191</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9706,8 +10411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9801,11 +10506,11 @@
       <c r="AD1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="123" t="s">
+      <c r="AE1" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
       <c r="AH1" s="15" t="s">
         <v>17</v>
       </c>
@@ -10447,7 +11152,7 @@
         <v>120</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>121</v>
@@ -12691,10 +13396,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>56</v>
@@ -12706,21 +13411,21 @@
         <v>36</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="H39" s="55"/>
       <c r="I39" s="65" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="J39" s="56" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="K39" s="56"/>
       <c r="L39" s="55" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="M39" s="55" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="N39" s="56" t="s">
         <v>43</v>
@@ -12743,7 +13448,7 @@
       <c r="AB39" s="55"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="14" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="AE39" s="58"/>
       <c r="AF39" s="66" t="s">
@@ -12760,7 +13465,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>376</v>
@@ -13229,7 +13934,7 @@
         <v>429</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14" t="s">
@@ -20802,7 +21507,7 @@
       <c r="Y175" s="38"/>
       <c r="Z175" s="38"/>
       <c r="AA175" s="42" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="AB175" s="38">
         <v>0</v>
@@ -26892,37 +27597,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="125" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B1" s="125"/>
+      <c r="A1" s="126" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1" s="126"/>
       <c r="U1" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" s="48"/>
-      <c r="C2" s="128" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="126" t="s">
-        <v>1699</v>
-      </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="126" t="s">
+      <c r="C2" s="129" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="127" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="127" t="s">
         <v>881</v>
       </c>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="53" t="s">
@@ -26976,7 +27681,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="B4" s="48" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="48"/>
@@ -26996,7 +27701,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="48" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -27016,7 +27721,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="B6" s="48" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -27036,7 +27741,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="48" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="48"/>
@@ -27201,14 +27906,14 @@
   <dimension ref="C5:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="8.5703125"/>
     <col min="4" max="4" width="75.85546875"/>
-    <col min="5" max="5" width="50.5703125"/>
+    <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
     <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
@@ -27229,7 +27934,7 @@
         <v>1205</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>1206</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.75">
@@ -27238,10 +27943,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>1207</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75">
@@ -27250,7 +27955,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>1208</v>
+        <v>1775</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>1209</v>
@@ -27262,7 +27967,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>1210</v>
+        <v>1780</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>1211</v>
@@ -27286,10 +27991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N65"/>
+  <dimension ref="A2:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30"/>
@@ -27313,12 +28018,12 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="N2" s="110" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="G3" s="76" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="82" customFormat="1" ht="114" customHeight="1">
@@ -27329,7 +28034,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>1206</v>
@@ -27347,7 +28052,7 @@
         <v>1205</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="K4" s="70" t="s">
         <v>1208</v>
@@ -27364,7 +28069,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="D5" s="95">
         <f t="shared" ref="D5:D51" si="0">SUM(E5:M5)</f>
@@ -27373,7 +28078,7 @@
       <c r="E5" s="96"/>
       <c r="F5" s="97"/>
       <c r="G5" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H5" s="99">
         <v>1</v>
@@ -27390,7 +28095,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="D6" s="95">
         <f t="shared" si="0"/>
@@ -27399,7 +28104,7 @@
       <c r="E6" s="96"/>
       <c r="F6" s="97"/>
       <c r="G6" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H6" s="99"/>
       <c r="I6" s="100"/>
@@ -27416,7 +28121,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="D7" s="95">
         <f t="shared" si="0"/>
@@ -27440,7 +28145,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="D8" s="95">
         <f t="shared" si="0"/>
@@ -27449,7 +28154,7 @@
       <c r="E8" s="96"/>
       <c r="F8" s="97"/>
       <c r="G8" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H8" s="99"/>
       <c r="I8" s="100"/>
@@ -27466,7 +28171,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="D9" s="95">
         <f t="shared" si="0"/>
@@ -27475,7 +28180,7 @@
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
       <c r="G9" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="100"/>
@@ -27492,7 +28197,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="D10" s="95">
         <f t="shared" si="0"/>
@@ -27501,7 +28206,7 @@
       <c r="E10" s="96"/>
       <c r="F10" s="97"/>
       <c r="G10" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="100"/>
@@ -27518,7 +28223,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="D11" s="95">
         <f t="shared" si="0"/>
@@ -27527,7 +28232,7 @@
       <c r="E11" s="96"/>
       <c r="F11" s="97"/>
       <c r="G11" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H11" s="99">
         <v>1</v>
@@ -27545,7 +28250,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="D12" s="95">
         <f t="shared" si="0"/>
@@ -27554,7 +28259,7 @@
       <c r="E12" s="96"/>
       <c r="F12" s="97"/>
       <c r="G12" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="100">
@@ -27571,7 +28276,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="D13" s="95">
         <f t="shared" si="0"/>
@@ -27580,7 +28285,7 @@
       <c r="E13" s="96"/>
       <c r="F13" s="97"/>
       <c r="G13" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="100">
@@ -27597,7 +28302,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="D14" s="95">
         <f t="shared" si="0"/>
@@ -27606,7 +28311,7 @@
       <c r="E14" s="96"/>
       <c r="F14" s="97"/>
       <c r="G14" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="100">
@@ -27623,7 +28328,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="D15" s="95">
         <f t="shared" si="0"/>
@@ -27632,7 +28337,7 @@
       <c r="E15" s="96"/>
       <c r="F15" s="97"/>
       <c r="G15" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H15" s="99"/>
       <c r="I15" s="100">
@@ -27649,7 +28354,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="94" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="D16" s="95">
         <f t="shared" si="0"/>
@@ -27658,7 +28363,7 @@
       <c r="E16" s="96"/>
       <c r="F16" s="97"/>
       <c r="G16" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="100">
@@ -27675,7 +28380,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="D17" s="95">
         <f t="shared" si="0"/>
@@ -27684,7 +28389,7 @@
       <c r="E17" s="96"/>
       <c r="F17" s="97"/>
       <c r="G17" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H17" s="99"/>
       <c r="I17" s="100">
@@ -27701,7 +28406,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="D18" s="95">
         <f t="shared" si="0"/>
@@ -27710,7 +28415,7 @@
       <c r="E18" s="96"/>
       <c r="F18" s="97"/>
       <c r="G18" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="100">
@@ -27727,7 +28432,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="D19" s="95">
         <f t="shared" si="0"/>
@@ -27736,7 +28441,7 @@
       <c r="E19" s="96"/>
       <c r="F19" s="97"/>
       <c r="G19" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H19" s="99"/>
       <c r="I19" s="100">
@@ -27753,7 +28458,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="D20" s="95">
         <f t="shared" si="0"/>
@@ -27764,7 +28469,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H20" s="99"/>
       <c r="I20" s="100"/>
@@ -27779,7 +28484,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="D21" s="95">
         <f t="shared" si="0"/>
@@ -27790,7 +28495,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H21" s="99"/>
       <c r="I21" s="100"/>
@@ -27805,7 +28510,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="D22" s="95">
         <f t="shared" si="0"/>
@@ -27816,7 +28521,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H22" s="99"/>
       <c r="I22" s="100"/>
@@ -27831,7 +28536,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="D23" s="95">
         <f t="shared" si="0"/>
@@ -27842,7 +28547,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H23" s="99"/>
       <c r="I23" s="100"/>
@@ -27857,7 +28562,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="94" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="D24" s="95">
         <f t="shared" si="0"/>
@@ -27868,7 +28573,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H24" s="99"/>
       <c r="I24" s="100"/>
@@ -27883,7 +28588,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="94" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="D25" s="95">
         <f t="shared" si="0"/>
@@ -27892,11 +28597,11 @@
       <c r="E25" s="96"/>
       <c r="F25" s="97"/>
       <c r="G25" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H25" s="99"/>
       <c r="I25" s="100" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="J25" s="101">
         <v>1</v>
@@ -27911,7 +28616,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="94" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="D26" s="95">
         <f t="shared" si="0"/>
@@ -27920,7 +28625,7 @@
       <c r="E26" s="96"/>
       <c r="F26" s="97"/>
       <c r="G26" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H26" s="99"/>
       <c r="I26" s="100">
@@ -27937,7 +28642,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="D27" s="95">
         <f t="shared" si="0"/>
@@ -27946,7 +28651,7 @@
       <c r="E27" s="96"/>
       <c r="F27" s="97"/>
       <c r="G27" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H27" s="99"/>
       <c r="I27" s="100">
@@ -27963,7 +28668,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="94" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="D28" s="95">
         <f t="shared" si="0"/>
@@ -27972,7 +28677,7 @@
       <c r="E28" s="106"/>
       <c r="F28" s="97"/>
       <c r="G28" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H28" s="99"/>
       <c r="I28" s="107">
@@ -27989,7 +28694,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="D29" s="95">
         <f t="shared" si="0"/>
@@ -27998,7 +28703,7 @@
       <c r="E29" s="106"/>
       <c r="F29" s="97"/>
       <c r="G29" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H29" s="99"/>
       <c r="I29" s="100">
@@ -28015,7 +28720,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="94" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="D30" s="95">
         <f t="shared" si="0"/>
@@ -28024,7 +28729,7 @@
       <c r="E30" s="106"/>
       <c r="F30" s="97"/>
       <c r="G30" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H30" s="99"/>
       <c r="I30" s="100">
@@ -28041,7 +28746,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="94" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="D31" s="95">
         <f t="shared" si="0"/>
@@ -28050,7 +28755,7 @@
       <c r="E31" s="106"/>
       <c r="F31" s="97"/>
       <c r="G31" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H31" s="99"/>
       <c r="I31" s="100">
@@ -28067,7 +28772,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="94" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="D32" s="95">
         <f t="shared" si="0"/>
@@ -28091,7 +28796,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="94" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="D33" s="95">
         <f t="shared" si="0"/>
@@ -28115,7 +28820,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="94" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="D34" s="95">
         <f t="shared" si="0"/>
@@ -28124,7 +28829,7 @@
       <c r="E34" s="106"/>
       <c r="F34" s="97"/>
       <c r="G34" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H34" s="99">
         <v>1</v>
@@ -28143,7 +28848,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="94" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="D35" s="95">
         <f t="shared" si="0"/>
@@ -28154,14 +28859,14 @@
       </c>
       <c r="F35" s="97"/>
       <c r="G35" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H35" s="99" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="I35" s="100"/>
       <c r="J35" s="101" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="K35" s="102"/>
       <c r="L35" s="102">
@@ -28175,7 +28880,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="D36" s="95">
         <f t="shared" si="0"/>
@@ -28184,7 +28889,7 @@
       <c r="E36" s="106"/>
       <c r="F36" s="97"/>
       <c r="G36" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H36" s="99"/>
       <c r="I36" s="100">
@@ -28203,7 +28908,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="94" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="D37" s="95">
         <f t="shared" si="0"/>
@@ -28212,7 +28917,7 @@
       <c r="E37" s="106"/>
       <c r="F37" s="97"/>
       <c r="G37" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H37" s="99">
         <v>1</v>
@@ -28231,7 +28936,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="94" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="D38" s="95">
         <f t="shared" si="0"/>
@@ -28240,7 +28945,7 @@
       <c r="E38" s="106"/>
       <c r="F38" s="97"/>
       <c r="G38" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H38" s="99">
         <v>1</v>
@@ -28259,7 +28964,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="D39" s="95">
         <f t="shared" si="0"/>
@@ -28268,7 +28973,7 @@
       <c r="E39" s="106"/>
       <c r="F39" s="97"/>
       <c r="G39" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H39" s="99"/>
       <c r="I39" s="100">
@@ -28287,7 +28992,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="D40" s="95">
         <f t="shared" si="0"/>
@@ -28296,7 +29001,7 @@
       <c r="E40" s="96"/>
       <c r="F40" s="97"/>
       <c r="G40" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H40" s="99">
         <v>1</v>
@@ -28315,7 +29020,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="94" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="D41" s="95">
         <f t="shared" si="0"/>
@@ -28324,7 +29029,7 @@
       <c r="E41" s="96"/>
       <c r="F41" s="97"/>
       <c r="G41" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H41" s="99">
         <v>1</v>
@@ -28343,7 +29048,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="94" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="D42" s="95">
         <f t="shared" si="0"/>
@@ -28352,7 +29057,7 @@
       <c r="E42" s="96"/>
       <c r="F42" s="97"/>
       <c r="G42" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H42" s="99">
         <v>1</v>
@@ -28371,7 +29076,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="D43" s="95">
         <f t="shared" si="0"/>
@@ -28380,7 +29085,7 @@
       <c r="E43" s="96"/>
       <c r="F43" s="97"/>
       <c r="G43" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H43" s="99">
         <v>1</v>
@@ -28391,7 +29096,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="109" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="M43" s="103"/>
     </row>
@@ -28401,7 +29106,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="94" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="D44" s="95">
         <f t="shared" si="0"/>
@@ -28410,7 +29115,7 @@
       <c r="E44" s="96"/>
       <c r="F44" s="97"/>
       <c r="G44" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H44" s="99">
         <v>1</v>
@@ -28429,7 +29134,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="D45" s="95">
         <f t="shared" si="0"/>
@@ -28438,7 +29143,7 @@
       <c r="E45" s="96"/>
       <c r="F45" s="97"/>
       <c r="G45" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H45" s="99">
         <v>1</v>
@@ -28457,7 +29162,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="D46" s="95">
         <f t="shared" si="0"/>
@@ -28466,7 +29171,7 @@
       <c r="E46" s="96"/>
       <c r="F46" s="97"/>
       <c r="G46" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H46" s="99">
         <v>1</v>
@@ -28485,7 +29190,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="D47" s="95">
         <f t="shared" si="0"/>
@@ -28494,7 +29199,7 @@
       <c r="E47" s="96"/>
       <c r="F47" s="97"/>
       <c r="G47" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H47" s="99">
         <v>1</v>
@@ -28513,7 +29218,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="94" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="D48" s="95">
         <f t="shared" si="0"/>
@@ -28522,7 +29227,7 @@
       <c r="E48" s="96"/>
       <c r="F48" s="97"/>
       <c r="G48" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H48" s="99">
         <v>1</v>
@@ -28541,7 +29246,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="94" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="D49" s="95">
         <f t="shared" si="0"/>
@@ -28552,7 +29257,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H49" s="99"/>
       <c r="I49" s="100">
@@ -28571,7 +29276,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="D50" s="95">
         <f t="shared" si="0"/>
@@ -28582,7 +29287,7 @@
       </c>
       <c r="F50" s="97"/>
       <c r="G50" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H50" s="99"/>
       <c r="I50" s="100">
@@ -28603,7 +29308,7 @@
         <v>45</v>
       </c>
       <c r="C51" s="94" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="D51" s="95">
         <f t="shared" si="0"/>
@@ -28614,7 +29319,7 @@
       </c>
       <c r="F51" s="97"/>
       <c r="G51" s="98" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H51" s="99">
         <v>1</v>
@@ -28631,90 +29336,475 @@
     </row>
     <row r="55" spans="2:13">
       <c r="E55" s="96" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="F55" s="97" t="s">
-        <v>1779</v>
-      </c>
-      <c r="G55" s="131" t="s">
-        <v>1780</v>
+        <v>1763</v>
+      </c>
+      <c r="G55" s="123" t="s">
+        <v>1764</v>
       </c>
       <c r="H55" s="99" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="100" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="56" spans="2:13">
       <c r="E56" s="96"/>
       <c r="F56" s="97"/>
-      <c r="G56" s="131"/>
+      <c r="G56" s="123"/>
       <c r="H56" s="99"/>
       <c r="I56" s="100"/>
     </row>
     <row r="57" spans="2:13">
       <c r="E57" s="96"/>
       <c r="F57" s="97"/>
-      <c r="G57" s="131"/>
+      <c r="G57" s="123"/>
       <c r="H57" s="99"/>
       <c r="I57" s="100"/>
     </row>
     <row r="58" spans="2:13">
       <c r="E58" s="96"/>
       <c r="F58" s="97"/>
-      <c r="G58" s="131"/>
+      <c r="G58" s="123"/>
       <c r="H58" s="99"/>
       <c r="I58" s="100"/>
     </row>
     <row r="59" spans="2:13">
       <c r="E59" s="96"/>
       <c r="F59" s="97"/>
-      <c r="G59" s="131"/>
+      <c r="G59" s="123"/>
       <c r="H59" s="99"/>
       <c r="I59" s="100"/>
     </row>
     <row r="60" spans="2:13">
       <c r="E60" s="96"/>
       <c r="F60" s="97"/>
-      <c r="G60" s="131"/>
+      <c r="G60" s="123"/>
       <c r="H60" s="99"/>
       <c r="I60" s="100"/>
     </row>
     <row r="61" spans="2:13">
       <c r="E61" s="96"/>
       <c r="F61" s="97"/>
-      <c r="G61" s="131"/>
+      <c r="G61" s="123"/>
       <c r="H61" s="99"/>
       <c r="I61" s="100"/>
     </row>
     <row r="62" spans="2:13">
       <c r="E62" s="96"/>
       <c r="F62" s="97"/>
-      <c r="G62" s="131"/>
+      <c r="G62" s="123"/>
       <c r="H62" s="99"/>
       <c r="I62" s="100"/>
     </row>
     <row r="63" spans="2:13">
       <c r="E63" s="96"/>
       <c r="F63" s="97"/>
-      <c r="G63" s="131"/>
+      <c r="G63" s="123"/>
       <c r="H63" s="99"/>
       <c r="I63" s="100"/>
     </row>
     <row r="64" spans="2:13">
       <c r="E64" s="96"/>
       <c r="F64" s="97"/>
-      <c r="G64" s="131"/>
+      <c r="G64" s="123"/>
       <c r="H64" s="99"/>
       <c r="I64" s="100"/>
     </row>
-    <row r="65" spans="5:9">
+    <row r="65" spans="3:9">
       <c r="E65" s="96"/>
       <c r="F65" s="97"/>
-      <c r="G65" s="131"/>
+      <c r="G65" s="123"/>
       <c r="H65" s="99"/>
       <c r="I65" s="100"/>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" s="72" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D75" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="72" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D76" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="72" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D77" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78" s="72" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D78" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="C79" s="72" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D79" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80" s="72" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D80" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="72" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D81" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="72" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D82" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="72" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D83" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="72" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D84" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="72" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D85" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="72" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D86" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="72" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D87" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="72" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D88" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="72" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D89" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="72" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D90" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="72" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D91" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="72" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D92" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="72" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D93" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="72" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D94" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="72" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D95" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="72" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D96" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="72" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D97" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="72" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D98" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="72" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D99" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="72" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D100" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="72" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D101" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="72" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D102" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="72" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D103" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104" s="72" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D104" s="73">
+        <f>SUM(D75:D103)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="72" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D105" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="72" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D106" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="72" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D107" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" s="72" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D108" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="72" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D109" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="72" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D110" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111" s="72" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D111" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112" s="72" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D112" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="72" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D113" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="72" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D114" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="72" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D115" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116" s="72" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D116" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117" s="72" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D117" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118" s="72" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D118" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" s="72" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D119" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120" s="72" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D120" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121" s="72" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D121" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122" s="72" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D122" s="73">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="C5:M51">
@@ -30269,7 +31359,7 @@
   <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView topLeftCell="A65" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33258,13 +34348,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView topLeftCell="A67" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125"/>
     <col min="3" max="3" width="11.7109375"/>
     <col min="4" max="4" width="11.42578125"/>
@@ -33278,7 +34368,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -33287,13 +34377,13 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="125" t="s">
         <v>1658</v>
       </c>
-      <c r="E1" s="124"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="124"/>
+      <c r="A2" s="125"/>
       <c r="D2" t="s">
         <v>1659</v>
       </c>
@@ -33342,7 +34432,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C5">
         <f>E5+D5</f>
@@ -33356,19 +34446,19 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="124" t="s">
+      <c r="A65" s="125" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
         <v>1657</v>
       </c>
-      <c r="D65" s="124" t="s">
+      <c r="D65" s="125" t="s">
         <v>1658</v>
       </c>
-      <c r="E65" s="124"/>
+      <c r="E65" s="125"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="124"/>
+      <c r="A66" s="125"/>
       <c r="B66" t="s">
         <v>1657</v>
       </c>
@@ -33384,9 +34474,9 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D67">
+        <v>1768</v>
+      </c>
+      <c r="E67">
         <v>1</v>
       </c>
     </row>
@@ -33395,9 +34485,9 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E68">
+        <v>1770</v>
+      </c>
+      <c r="D68">
         <v>1</v>
       </c>
     </row>
@@ -33406,7 +34496,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -33417,9 +34507,9 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D70">
+        <v>1760</v>
+      </c>
+      <c r="E70">
         <v>1</v>
       </c>
     </row>
@@ -33428,9 +34518,9 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>1770</v>
-      </c>
-      <c r="E71">
+        <v>1771</v>
+      </c>
+      <c r="D71">
         <v>1</v>
       </c>
     </row>
@@ -33439,10 +34529,13 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D72">
         <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -33450,21 +34543,21 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D73">
+        <v>1766</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E73">
         <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -33472,68 +34565,77 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
+      <c r="E75" t="s">
+        <v>1702</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1712</v>
+        <v>1757</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E77">
+        <v>1759</v>
+      </c>
+      <c r="D77">
         <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D78">
+        <v>1778</v>
+      </c>
+      <c r="E78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E79">
+        <v>1756</v>
+      </c>
+      <c r="D79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>1778</v>
+        <v>1767</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1702</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -33541,10 +34643,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>1664</v>
+        <v>1777</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -33552,110 +34654,27 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>1662</v>
+        <v>1769</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84">
-        <v>18</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D84">
+        <v>1758</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85">
-        <v>19</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86">
-        <v>20</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87">
-        <v>21</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88">
-        <v>22</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1670</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89">
-        <v>23</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90">
-        <v>24</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
+      <c r="E83" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
@@ -33663,20 +34682,20 @@
         <v>1205</v>
       </c>
       <c r="H93" s="46" t="s">
-        <v>1206</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
       <c r="G94" s="46" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="H94" s="46" t="s">
-        <v>1207</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
       <c r="G95" s="67" t="s">
-        <v>1208</v>
+        <v>1775</v>
       </c>
       <c r="H95" s="46" t="s">
         <v>1209</v>
@@ -33684,7 +34703,7 @@
     </row>
     <row r="96" spans="1:8" ht="15.75">
       <c r="G96" s="47" t="s">
-        <v>1210</v>
+        <v>1780</v>
       </c>
       <c r="H96" s="47" t="s">
         <v>1211</v>
@@ -33697,6 +34716,9 @@
       <c r="H97" s="69"/>
     </row>
   </sheetData>
+  <sortState ref="B67:E83">
+    <sortCondition descending="1" ref="B67:B83"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
@@ -33713,8 +34735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22:Z26"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33743,13 +34765,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>426</v>
@@ -33758,19 +34780,19 @@
         <v>116</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="H1" s="53" t="s">
         <v>360</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>1764</v>
+        <v>1039</v>
       </c>
       <c r="L1" s="53" t="s">
         <v>347</v>
@@ -33801,7 +34823,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
       <c r="L2" s="48" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="M2" s="122">
         <v>3.0880000000000001</v>
@@ -33829,7 +34851,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="M3" s="122">
         <v>0.56000000000000005</v>
@@ -33897,7 +34919,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="M5" s="122">
         <v>0.51</v>
@@ -33906,7 +34928,7 @@
         <v>43</v>
       </c>
       <c r="AB5" s="46" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="AC5" s="46" t="s">
         <v>1207</v>
@@ -33966,7 +34988,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="B15" s="113" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>32</v>
@@ -34073,7 +35095,7 @@
         <v>2016</v>
       </c>
       <c r="C22" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="118"/>
       <c r="E22" s="118"/>
@@ -34085,7 +35107,7 @@
         <v>1205</v>
       </c>
       <c r="Z22" s="46" t="s">
-        <v>1206</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="15.75">
@@ -34093,7 +35115,7 @@
         <v>2017</v>
       </c>
       <c r="C23" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="118"/>
       <c r="E23" s="118"/>
@@ -34102,10 +35124,10 @@
       <c r="H23" s="118"/>
       <c r="I23" s="118"/>
       <c r="Y23" s="46" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="Z23" s="46" t="s">
-        <v>1207</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="15.75">
@@ -34122,7 +35144,7 @@
       <c r="H24" s="118"/>
       <c r="I24" s="118"/>
       <c r="Y24" s="67" t="s">
-        <v>1208</v>
+        <v>1775</v>
       </c>
       <c r="Z24" s="46" t="s">
         <v>1209</v>
@@ -34130,7 +35152,7 @@
     </row>
     <row r="25" spans="2:26" ht="15.75">
       <c r="Y25" s="47" t="s">
-        <v>1210</v>
+        <v>1780</v>
       </c>
       <c r="Z25" s="47" t="s">
         <v>1211</v>
@@ -34152,7 +35174,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -34160,7 +35182,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -34168,7 +35190,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -34176,7 +35198,7 @@
     </row>
     <row r="55" spans="2:3" ht="14.25" customHeight="1">
       <c r="B55" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -34218,24 +35240,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="B1" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="C1" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="B2" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="C2" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="D2">
         <v>37</v>
@@ -34243,13 +35265,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="B3" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="C3" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -34257,13 +35279,13 @@
     </row>
     <row r="4" spans="1:4" ht="75">
       <c r="A4" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="C4" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="D4">
         <v>109</v>
